--- a/第一次提交物-未命名小组/经济预算.xlsx
+++ b/第一次提交物-未命名小组/经济预算.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\伽马\Unnamed\第一次提交物-未命名小组\经济预算\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\伽马\Unnamed\第一次提交物-未命名小组\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{755A9666-B17D-4B6E-85EF-EEBF745ADCC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EC7AF7-C386-4FA6-A38C-8D4FDBD76963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="方案1（奖金多，用于意外支出更多" sheetId="1" r:id="rId1"/>
-    <sheet name="方案2（奖金少，支持更多" sheetId="2" r:id="rId2"/>
+    <sheet name="方案2（已选" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -133,10 +133,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -728,7 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1091,7 +1091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1310,7 +1310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1527,5 +1527,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/第一次提交物-未命名小组/经济预算.xlsx
+++ b/第一次提交物-未命名小组/经济预算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\伽马\Unnamed\第一次提交物-未命名小组\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EC7AF7-C386-4FA6-A38C-8D4FDBD76963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AC2396-6BA2-4FEB-B12A-2E7C9D1ED359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="方案1（奖金多，用于意外支出更多" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>科目</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>起草人：张海汀</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1314,7 +1318,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1374,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
